--- a/Outputs/RIF/Tables/Cmax_comparisons.xlsx
+++ b/Outputs/RIF/Tables/Cmax_comparisons.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="45" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="87" uniqueCount="3">
   <si>
     <t>Cmax; % Higher than Oral Dose</t>
   </si>
@@ -122,16 +122,16 @@
         <v>100</v>
       </c>
       <c r="C3" s="0">
-        <v>-68.209999999999994</v>
+        <v>-65.120000000000005</v>
       </c>
       <c r="D3" s="0">
-        <v>-61.280000000000001</v>
+        <v>-58.369999999999998</v>
       </c>
       <c r="E3" s="0">
-        <v>-53.740000000000002</v>
+        <v>-50.850000000000001</v>
       </c>
       <c r="F3" s="0">
-        <v>-46.030000000000001</v>
+        <v>-43.119999999999998</v>
       </c>
     </row>
     <row r="4">
@@ -140,16 +140,16 @@
         <v>150</v>
       </c>
       <c r="C4" s="0">
-        <v>-52.32</v>
+        <v>-47.68</v>
       </c>
       <c r="D4" s="0">
-        <v>-41.920000000000002</v>
+        <v>-37.560000000000002</v>
       </c>
       <c r="E4" s="0">
-        <v>-30.61</v>
+        <v>-26.27</v>
       </c>
       <c r="F4" s="0">
-        <v>-19.050000000000001</v>
+        <v>-14.68</v>
       </c>
     </row>
     <row r="5">
@@ -158,16 +158,16 @@
         <v>200</v>
       </c>
       <c r="C5" s="0">
-        <v>-36.43</v>
+        <v>-30.239999999999999</v>
       </c>
       <c r="D5" s="0">
-        <v>-22.559999999999999</v>
+        <v>-16.75</v>
       </c>
       <c r="E5" s="0">
-        <v>-7.4800000000000004</v>
+        <v>-1.7</v>
       </c>
       <c r="F5" s="0">
-        <v>7.9400000000000004</v>
+        <v>13.76</v>
       </c>
     </row>
     <row r="6">
@@ -176,16 +176,16 @@
         <v>250</v>
       </c>
       <c r="C6" s="0">
-        <v>-20.539999999999999</v>
+        <v>-12.800000000000001</v>
       </c>
       <c r="D6" s="0">
-        <v>-3.2000000000000002</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="E6" s="0">
-        <v>15.65</v>
+        <v>22.879999999999999</v>
       </c>
       <c r="F6" s="0">
-        <v>34.920000000000002</v>
+        <v>42.200000000000003</v>
       </c>
     </row>
     <row r="7">
@@ -194,16 +194,16 @@
         <v>300</v>
       </c>
       <c r="C7" s="0">
-        <v>-4.6399999999999997</v>
+        <v>4.6299999999999999</v>
       </c>
       <c r="D7" s="0">
-        <v>16.16</v>
+        <v>24.879999999999999</v>
       </c>
       <c r="E7" s="0">
-        <v>38.780000000000001</v>
+        <v>47.450000000000003</v>
       </c>
       <c r="F7" s="0">
-        <v>61.909999999999997</v>
+        <v>70.640000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -212,16 +212,16 @@
         <v>350</v>
       </c>
       <c r="C8" s="0">
-        <v>11.25</v>
+        <v>22.07</v>
       </c>
       <c r="D8" s="0">
-        <v>35.520000000000003</v>
+        <v>45.689999999999998</v>
       </c>
       <c r="E8" s="0">
-        <v>61.909999999999997</v>
+        <v>72.030000000000001</v>
       </c>
       <c r="F8" s="0">
-        <v>88.890000000000001</v>
+        <v>99.090000000000003</v>
       </c>
     </row>
     <row r="9">
@@ -230,16 +230,16 @@
         <v>400</v>
       </c>
       <c r="C9" s="0">
-        <v>27.140000000000001</v>
+        <v>39.509999999999998</v>
       </c>
       <c r="D9" s="0">
-        <v>54.880000000000003</v>
+        <v>66.5</v>
       </c>
       <c r="E9" s="0">
-        <v>85.040000000000006</v>
+        <v>96.599999999999994</v>
       </c>
       <c r="F9" s="0">
-        <v>115.87</v>
+        <v>127.53</v>
       </c>
     </row>
     <row r="10">
@@ -248,16 +248,16 @@
         <v>450</v>
       </c>
       <c r="C10" s="0">
-        <v>43.039999999999999</v>
+        <v>56.950000000000003</v>
       </c>
       <c r="D10" s="0">
-        <v>74.239999999999995</v>
+        <v>87.319999999999993</v>
       </c>
       <c r="E10" s="0">
-        <v>108.17</v>
+        <v>121.18000000000001</v>
       </c>
       <c r="F10" s="0">
-        <v>142.86000000000001</v>
+        <v>155.97</v>
       </c>
     </row>
     <row r="11">
@@ -266,16 +266,16 @@
         <v>500</v>
       </c>
       <c r="C11" s="0">
-        <v>58.93</v>
+        <v>74.390000000000001</v>
       </c>
       <c r="D11" s="0">
-        <v>93.599999999999994</v>
+        <v>108.13</v>
       </c>
       <c r="E11" s="0">
-        <v>131.31</v>
+        <v>145.75999999999999</v>
       </c>
       <c r="F11" s="0">
-        <v>169.84</v>
+        <v>184.41</v>
       </c>
     </row>
     <row r="12">
@@ -284,16 +284,16 @@
         <v>550</v>
       </c>
       <c r="C12" s="0">
-        <v>74.819999999999993</v>
+        <v>91.829999999999998</v>
       </c>
       <c r="D12" s="0">
-        <v>112.95999999999999</v>
+        <v>128.94</v>
       </c>
       <c r="E12" s="0">
-        <v>154.44</v>
+        <v>170.33000000000001</v>
       </c>
       <c r="F12" s="0">
-        <v>196.83000000000001</v>
+        <v>212.85</v>
       </c>
     </row>
     <row r="13">
@@ -302,16 +302,16 @@
         <v>600</v>
       </c>
       <c r="C13" s="0">
-        <v>90.719999999999999</v>
+        <v>109.27</v>
       </c>
       <c r="D13" s="0">
-        <v>132.31999999999999</v>
+        <v>149.75999999999999</v>
       </c>
       <c r="E13" s="0">
-        <v>177.56999999999999</v>
+        <v>194.91</v>
       </c>
       <c r="F13" s="0">
-        <v>223.81</v>
+        <v>241.28999999999999</v>
       </c>
     </row>
     <row r="14">
@@ -320,16 +320,16 @@
         <v>650</v>
       </c>
       <c r="C14" s="0">
-        <v>106.61</v>
+        <v>126.70999999999999</v>
       </c>
       <c r="D14" s="0">
-        <v>151.68000000000001</v>
+        <v>170.56999999999999</v>
       </c>
       <c r="E14" s="0">
-        <v>200.69999999999999</v>
+        <v>219.47999999999999</v>
       </c>
       <c r="F14" s="0">
-        <v>250.78999999999999</v>
+        <v>269.73000000000002</v>
       </c>
     </row>
     <row r="15">
@@ -338,16 +338,16 @@
         <v>700</v>
       </c>
       <c r="C15" s="0">
-        <v>122.5</v>
+        <v>144.15000000000001</v>
       </c>
       <c r="D15" s="0">
-        <v>171.03999999999999</v>
+        <v>191.38</v>
       </c>
       <c r="E15" s="0">
-        <v>223.83000000000001</v>
+        <v>244.06</v>
       </c>
       <c r="F15" s="0">
-        <v>277.77999999999997</v>
+        <v>298.17000000000002</v>
       </c>
     </row>
     <row r="16">
@@ -356,16 +356,16 @@
         <v>750</v>
       </c>
       <c r="C16" s="0">
-        <v>138.38999999999999</v>
+        <v>161.59</v>
       </c>
       <c r="D16" s="0">
-        <v>190.40000000000001</v>
+        <v>212.19</v>
       </c>
       <c r="E16" s="0">
-        <v>246.96000000000001</v>
+        <v>268.63</v>
       </c>
       <c r="F16" s="0">
-        <v>304.75999999999999</v>
+        <v>326.61000000000001</v>
       </c>
     </row>
     <row r="17">
@@ -374,16 +374,16 @@
         <v>800</v>
       </c>
       <c r="C17" s="0">
-        <v>154.28999999999999</v>
+        <v>179.03</v>
       </c>
       <c r="D17" s="0">
-        <v>209.75999999999999</v>
+        <v>233.00999999999999</v>
       </c>
       <c r="E17" s="0">
-        <v>270.08999999999997</v>
+        <v>293.20999999999998</v>
       </c>
       <c r="F17" s="0">
-        <v>331.75</v>
+        <v>355.05000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -392,16 +392,16 @@
         <v>850</v>
       </c>
       <c r="C18" s="0">
-        <v>170.18000000000001</v>
+        <v>196.47</v>
       </c>
       <c r="D18" s="0">
-        <v>229.12</v>
+        <v>253.81999999999999</v>
       </c>
       <c r="E18" s="0">
-        <v>293.22000000000003</v>
+        <v>317.79000000000002</v>
       </c>
       <c r="F18" s="0">
-        <v>358.73000000000002</v>
+        <v>383.49000000000001</v>
       </c>
     </row>
     <row r="19">
@@ -410,16 +410,16 @@
         <v>900</v>
       </c>
       <c r="C19" s="0">
-        <v>186.06999999999999</v>
+        <v>213.90000000000001</v>
       </c>
       <c r="D19" s="0">
-        <v>248.47999999999999</v>
+        <v>274.63</v>
       </c>
       <c r="E19" s="0">
-        <v>316.35000000000002</v>
+        <v>342.36000000000001</v>
       </c>
       <c r="F19" s="0">
-        <v>385.72000000000003</v>
+        <v>411.93000000000001</v>
       </c>
     </row>
     <row r="20">
@@ -428,16 +428,16 @@
         <v>950</v>
       </c>
       <c r="C20" s="0">
-        <v>201.97</v>
+        <v>231.34</v>
       </c>
       <c r="D20" s="0">
-        <v>267.83999999999997</v>
+        <v>295.44999999999999</v>
       </c>
       <c r="E20" s="0">
-        <v>339.48000000000002</v>
+        <v>366.94</v>
       </c>
       <c r="F20" s="0">
-        <v>412.69999999999999</v>
+        <v>440.37</v>
       </c>
     </row>
     <row r="21">
@@ -446,16 +446,16 @@
         <v>1000</v>
       </c>
       <c r="C21" s="0">
-        <v>217.86000000000001</v>
+        <v>248.78</v>
       </c>
       <c r="D21" s="0">
-        <v>287.19999999999999</v>
+        <v>316.25999999999999</v>
       </c>
       <c r="E21" s="0">
-        <v>362.61000000000001</v>
+        <v>391.50999999999999</v>
       </c>
       <c r="F21" s="0">
-        <v>439.68000000000001</v>
+        <v>468.81999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -514,16 +514,16 @@
         <v>100</v>
       </c>
       <c r="C3" s="0">
-        <v>-74.599999999999994</v>
+        <v>-72.689999999999998</v>
       </c>
       <c r="D3" s="0">
-        <v>-67.730000000000004</v>
+        <v>-65.959999999999994</v>
       </c>
       <c r="E3" s="0">
-        <v>-60.270000000000003</v>
+        <v>-58.539999999999999</v>
       </c>
       <c r="F3" s="0">
-        <v>-52.649999999999999</v>
+        <v>-50.93</v>
       </c>
     </row>
     <row r="4">
@@ -532,16 +532,16 @@
         <v>150</v>
       </c>
       <c r="C4" s="0">
-        <v>-61.899999999999999</v>
+        <v>-59.030000000000001</v>
       </c>
       <c r="D4" s="0">
-        <v>-51.600000000000001</v>
+        <v>-48.950000000000003</v>
       </c>
       <c r="E4" s="0">
-        <v>-40.409999999999997</v>
+        <v>-37.810000000000002</v>
       </c>
       <c r="F4" s="0">
-        <v>-28.98</v>
+        <v>-26.399999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -550,16 +550,16 @@
         <v>200</v>
       </c>
       <c r="C5" s="0">
-        <v>-49.189999999999998</v>
+        <v>-45.380000000000003</v>
       </c>
       <c r="D5" s="0">
-        <v>-35.469999999999999</v>
+        <v>-31.93</v>
       </c>
       <c r="E5" s="0">
-        <v>-20.550000000000001</v>
+        <v>-17.07</v>
       </c>
       <c r="F5" s="0">
-        <v>-5.2999999999999998</v>
+        <v>-1.8700000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -568,16 +568,16 @@
         <v>250</v>
       </c>
       <c r="C6" s="0">
-        <v>-36.490000000000002</v>
+        <v>-31.719999999999999</v>
       </c>
       <c r="D6" s="0">
-        <v>-19.34</v>
+        <v>-14.91</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.68999999999999995</v>
+        <v>3.6600000000000001</v>
       </c>
       <c r="F6" s="0">
-        <v>18.370000000000001</v>
+        <v>22.670000000000002</v>
       </c>
     </row>
     <row r="7">
@@ -586,16 +586,16 @@
         <v>300</v>
       </c>
       <c r="C7" s="0">
-        <v>-23.789999999999999</v>
+        <v>-18.059999999999999</v>
       </c>
       <c r="D7" s="0">
-        <v>-3.2000000000000002</v>
+        <v>2.1099999999999999</v>
       </c>
       <c r="E7" s="0">
-        <v>19.18</v>
+        <v>24.390000000000001</v>
       </c>
       <c r="F7" s="0">
-        <v>42.049999999999997</v>
+        <v>47.200000000000003</v>
       </c>
     </row>
     <row r="8">
@@ -604,16 +604,16 @@
         <v>350</v>
       </c>
       <c r="C8" s="0">
-        <v>-11.09</v>
+        <v>-4.4100000000000001</v>
       </c>
       <c r="D8" s="0">
-        <v>12.93</v>
+        <v>19.120000000000001</v>
       </c>
       <c r="E8" s="0">
-        <v>39.039999999999999</v>
+        <v>45.119999999999998</v>
       </c>
       <c r="F8" s="0">
-        <v>65.719999999999999</v>
+        <v>71.730000000000004</v>
       </c>
     </row>
     <row r="9">
@@ -622,16 +622,16 @@
         <v>400</v>
       </c>
       <c r="C9" s="0">
-        <v>1.6100000000000001</v>
+        <v>9.25</v>
       </c>
       <c r="D9" s="0">
-        <v>29.059999999999999</v>
+        <v>36.140000000000001</v>
       </c>
       <c r="E9" s="0">
-        <v>58.899999999999999</v>
+        <v>65.849999999999994</v>
       </c>
       <c r="F9" s="0">
-        <v>89.390000000000001</v>
+        <v>96.269999999999996</v>
       </c>
     </row>
     <row r="10">
@@ -640,16 +640,16 @@
         <v>450</v>
       </c>
       <c r="C10" s="0">
-        <v>14.31</v>
+        <v>22.899999999999999</v>
       </c>
       <c r="D10" s="0">
-        <v>45.200000000000003</v>
+        <v>53.159999999999997</v>
       </c>
       <c r="E10" s="0">
-        <v>78.769999999999996</v>
+        <v>86.579999999999998</v>
       </c>
       <c r="F10" s="0">
-        <v>113.06999999999999</v>
+        <v>120.8</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         <v>500</v>
       </c>
       <c r="C11" s="0">
-        <v>27.010000000000002</v>
+        <v>36.560000000000002</v>
       </c>
       <c r="D11" s="0">
-        <v>61.329999999999998</v>
+        <v>70.180000000000007</v>
       </c>
       <c r="E11" s="0">
-        <v>98.629999999999996</v>
+        <v>107.31</v>
       </c>
       <c r="F11" s="0">
-        <v>136.74000000000001</v>
+        <v>145.34</v>
       </c>
     </row>
     <row r="12">
@@ -676,16 +676,16 @@
         <v>550</v>
       </c>
       <c r="C12" s="0">
-        <v>39.719999999999999</v>
+        <v>50.219999999999999</v>
       </c>
       <c r="D12" s="0">
-        <v>77.459999999999994</v>
+        <v>87.189999999999998</v>
       </c>
       <c r="E12" s="0">
-        <v>118.48999999999999</v>
+        <v>128.05000000000001</v>
       </c>
       <c r="F12" s="0">
-        <v>160.41999999999999</v>
+        <v>169.87</v>
       </c>
     </row>
     <row r="13">
@@ -694,16 +694,16 @@
         <v>600</v>
       </c>
       <c r="C13" s="0">
-        <v>52.420000000000002</v>
+        <v>63.869999999999998</v>
       </c>
       <c r="D13" s="0">
-        <v>93.590000000000003</v>
+        <v>104.20999999999999</v>
       </c>
       <c r="E13" s="0">
-        <v>138.36000000000001</v>
+        <v>148.78</v>
       </c>
       <c r="F13" s="0">
-        <v>184.09</v>
+        <v>194.40000000000001</v>
       </c>
     </row>
     <row r="14">
@@ -712,16 +712,16 @@
         <v>650</v>
       </c>
       <c r="C14" s="0">
-        <v>65.120000000000005</v>
+        <v>77.530000000000001</v>
       </c>
       <c r="D14" s="0">
-        <v>109.73</v>
+        <v>121.23</v>
       </c>
       <c r="E14" s="0">
-        <v>158.22</v>
+        <v>169.50999999999999</v>
       </c>
       <c r="F14" s="0">
-        <v>207.77000000000001</v>
+        <v>218.94</v>
       </c>
     </row>
     <row r="15">
@@ -730,16 +730,16 @@
         <v>700</v>
       </c>
       <c r="C15" s="0">
-        <v>77.819999999999993</v>
+        <v>91.180000000000007</v>
       </c>
       <c r="D15" s="0">
-        <v>125.86</v>
+        <v>138.25</v>
       </c>
       <c r="E15" s="0">
-        <v>178.08000000000001</v>
+        <v>190.24000000000001</v>
       </c>
       <c r="F15" s="0">
-        <v>231.44</v>
+        <v>243.47</v>
       </c>
     </row>
     <row r="16">
@@ -748,16 +748,16 @@
         <v>750</v>
       </c>
       <c r="C16" s="0">
-        <v>90.519999999999996</v>
+        <v>104.84</v>
       </c>
       <c r="D16" s="0">
-        <v>141.99000000000001</v>
+        <v>155.25999999999999</v>
       </c>
       <c r="E16" s="0">
-        <v>197.94</v>
+        <v>210.97</v>
       </c>
       <c r="F16" s="0">
-        <v>255.11000000000001</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17">
@@ -766,16 +766,16 @@
         <v>800</v>
       </c>
       <c r="C17" s="0">
-        <v>103.22</v>
+        <v>118.5</v>
       </c>
       <c r="D17" s="0">
-        <v>158.13</v>
+        <v>172.28</v>
       </c>
       <c r="E17" s="0">
-        <v>217.81</v>
+        <v>231.69999999999999</v>
       </c>
       <c r="F17" s="0">
-        <v>278.79000000000002</v>
+        <v>292.54000000000002</v>
       </c>
     </row>
     <row r="18">
@@ -784,16 +784,16 @@
         <v>850</v>
       </c>
       <c r="C18" s="0">
-        <v>115.92</v>
+        <v>132.15000000000001</v>
       </c>
       <c r="D18" s="0">
-        <v>174.25999999999999</v>
+        <v>189.30000000000001</v>
       </c>
       <c r="E18" s="0">
-        <v>237.66999999999999</v>
+        <v>252.43000000000001</v>
       </c>
       <c r="F18" s="0">
-        <v>302.45999999999998</v>
+        <v>317.06999999999999</v>
       </c>
     </row>
     <row r="19">
@@ -802,16 +802,16 @@
         <v>900</v>
       </c>
       <c r="C19" s="0">
-        <v>128.63</v>
+        <v>145.81</v>
       </c>
       <c r="D19" s="0">
-        <v>190.38999999999999</v>
+        <v>206.31999999999999</v>
       </c>
       <c r="E19" s="0">
-        <v>257.52999999999997</v>
+        <v>273.17000000000002</v>
       </c>
       <c r="F19" s="0">
-        <v>326.13999999999999</v>
+        <v>341.60000000000002</v>
       </c>
     </row>
     <row r="20">
@@ -820,16 +820,16 @@
         <v>950</v>
       </c>
       <c r="C20" s="0">
-        <v>141.33000000000001</v>
+        <v>159.46000000000001</v>
       </c>
       <c r="D20" s="0">
-        <v>206.53</v>
+        <v>223.33000000000001</v>
       </c>
       <c r="E20" s="0">
-        <v>277.39999999999998</v>
+        <v>293.89999999999998</v>
       </c>
       <c r="F20" s="0">
-        <v>349.81</v>
+        <v>366.13999999999999</v>
       </c>
     </row>
     <row r="21">
@@ -838,16 +838,16 @@
         <v>1000</v>
       </c>
       <c r="C21" s="0">
-        <v>154.03</v>
+        <v>173.12</v>
       </c>
       <c r="D21" s="0">
-        <v>222.66</v>
+        <v>240.35</v>
       </c>
       <c r="E21" s="0">
-        <v>297.25999999999999</v>
+        <v>314.63</v>
       </c>
       <c r="F21" s="0">
-        <v>373.49000000000001</v>
+        <v>390.67000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -906,16 +906,16 @@
         <v>100</v>
       </c>
       <c r="C3" s="0">
-        <v>-75.640000000000001</v>
+        <v>-74.700000000000003</v>
       </c>
       <c r="D3" s="0">
-        <v>-69.879999999999996</v>
+        <v>-68.959999999999994</v>
       </c>
       <c r="E3" s="0">
-        <v>-63.630000000000003</v>
+        <v>-62.57</v>
       </c>
       <c r="F3" s="0">
-        <v>-57.240000000000002</v>
+        <v>-56.020000000000003</v>
       </c>
     </row>
     <row r="4">
@@ -924,16 +924,16 @@
         <v>150</v>
       </c>
       <c r="C4" s="0">
-        <v>-63.450000000000003</v>
+        <v>-62.049999999999997</v>
       </c>
       <c r="D4" s="0">
-        <v>-54.82</v>
+        <v>-53.439999999999998</v>
       </c>
       <c r="E4" s="0">
-        <v>-45.439999999999998</v>
+        <v>-43.86</v>
       </c>
       <c r="F4" s="0">
-        <v>-35.86</v>
+        <v>-34.030000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -942,16 +942,16 @@
         <v>200</v>
       </c>
       <c r="C5" s="0">
-        <v>-51.270000000000003</v>
+        <v>-49.399999999999999</v>
       </c>
       <c r="D5" s="0">
-        <v>-39.759999999999998</v>
+        <v>-37.920000000000002</v>
       </c>
       <c r="E5" s="0">
-        <v>-27.25</v>
+        <v>-25.140000000000001</v>
       </c>
       <c r="F5" s="0">
-        <v>-14.48</v>
+        <v>-12.039999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -960,16 +960,16 @@
         <v>250</v>
       </c>
       <c r="C6" s="0">
-        <v>-39.090000000000004</v>
+        <v>-36.740000000000002</v>
       </c>
       <c r="D6" s="0">
-        <v>-24.699999999999999</v>
+        <v>-22.399999999999999</v>
       </c>
       <c r="E6" s="0">
-        <v>-9.0700000000000003</v>
+        <v>-6.4299999999999997</v>
       </c>
       <c r="F6" s="0">
-        <v>6.9000000000000004</v>
+        <v>9.9499999999999993</v>
       </c>
     </row>
     <row r="7">
@@ -978,16 +978,16 @@
         <v>300</v>
       </c>
       <c r="C7" s="0">
-        <v>-26.91</v>
+        <v>-24.09</v>
       </c>
       <c r="D7" s="0">
-        <v>-9.6400000000000006</v>
+        <v>-6.8799999999999999</v>
       </c>
       <c r="E7" s="0">
-        <v>9.1199999999999992</v>
+        <v>12.289999999999999</v>
       </c>
       <c r="F7" s="0">
-        <v>28.280000000000001</v>
+        <v>31.940000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -996,16 +996,16 @@
         <v>350</v>
       </c>
       <c r="C8" s="0">
-        <v>-14.720000000000001</v>
+        <v>-11.44</v>
       </c>
       <c r="D8" s="0">
-        <v>5.4199999999999999</v>
+        <v>8.6400000000000006</v>
       </c>
       <c r="E8" s="0">
-        <v>27.309999999999999</v>
+        <v>31</v>
       </c>
       <c r="F8" s="0">
-        <v>49.659999999999997</v>
+        <v>53.939999999999998</v>
       </c>
     </row>
     <row r="9">
@@ -1014,16 +1014,16 @@
         <v>400</v>
       </c>
       <c r="C9" s="0">
-        <v>-2.54</v>
+        <v>1.21</v>
       </c>
       <c r="D9" s="0">
-        <v>20.48</v>
+        <v>24.16</v>
       </c>
       <c r="E9" s="0">
-        <v>45.5</v>
+        <v>49.719999999999999</v>
       </c>
       <c r="F9" s="0">
-        <v>71.030000000000001</v>
+        <v>75.930000000000007</v>
       </c>
     </row>
     <row r="10">
@@ -1032,16 +1032,16 @@
         <v>450</v>
       </c>
       <c r="C10" s="0">
-        <v>9.6400000000000006</v>
+        <v>13.859999999999999</v>
       </c>
       <c r="D10" s="0">
-        <v>35.539999999999999</v>
+        <v>39.68</v>
       </c>
       <c r="E10" s="0">
-        <v>63.68</v>
+        <v>68.430000000000007</v>
       </c>
       <c r="F10" s="0">
-        <v>92.409999999999997</v>
+        <v>97.920000000000002</v>
       </c>
     </row>
     <row r="11">
@@ -1050,16 +1050,16 @@
         <v>500</v>
       </c>
       <c r="C11" s="0">
-        <v>21.82</v>
+        <v>26.510000000000002</v>
       </c>
       <c r="D11" s="0">
-        <v>50.600000000000001</v>
+        <v>55.200000000000003</v>
       </c>
       <c r="E11" s="0">
-        <v>81.870000000000005</v>
+        <v>87.150000000000006</v>
       </c>
       <c r="F11" s="0">
-        <v>113.79000000000001</v>
+        <v>119.91</v>
       </c>
     </row>
     <row r="12">
@@ -1068,16 +1068,16 @@
         <v>550</v>
       </c>
       <c r="C12" s="0">
-        <v>34.009999999999998</v>
+        <v>39.159999999999997</v>
       </c>
       <c r="D12" s="0">
-        <v>65.659999999999997</v>
+        <v>70.719999999999999</v>
       </c>
       <c r="E12" s="0">
-        <v>100.06</v>
+        <v>105.86</v>
       </c>
       <c r="F12" s="0">
-        <v>135.16999999999999</v>
+        <v>141.90000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -1086,16 +1086,16 @@
         <v>600</v>
       </c>
       <c r="C13" s="0">
-        <v>46.189999999999998</v>
+        <v>51.810000000000002</v>
       </c>
       <c r="D13" s="0">
-        <v>80.730000000000004</v>
+        <v>86.239999999999995</v>
       </c>
       <c r="E13" s="0">
-        <v>118.23999999999999</v>
+        <v>124.56999999999999</v>
       </c>
       <c r="F13" s="0">
-        <v>156.55000000000001</v>
+        <v>163.88999999999999</v>
       </c>
     </row>
     <row r="14">
@@ -1104,16 +1104,16 @@
         <v>650</v>
       </c>
       <c r="C14" s="0">
-        <v>58.369999999999998</v>
+        <v>64.459999999999994</v>
       </c>
       <c r="D14" s="0">
-        <v>95.790000000000006</v>
+        <v>101.76000000000001</v>
       </c>
       <c r="E14" s="0">
-        <v>136.43000000000001</v>
+        <v>143.28999999999999</v>
       </c>
       <c r="F14" s="0">
-        <v>177.93000000000001</v>
+        <v>185.88</v>
       </c>
     </row>
     <row r="15">
@@ -1122,16 +1122,16 @@
         <v>700</v>
       </c>
       <c r="C15" s="0">
-        <v>70.549999999999997</v>
+        <v>77.120000000000005</v>
       </c>
       <c r="D15" s="0">
-        <v>110.84999999999999</v>
+        <v>117.29000000000001</v>
       </c>
       <c r="E15" s="0">
-        <v>154.62</v>
+        <v>162</v>
       </c>
       <c r="F15" s="0">
-        <v>199.31</v>
+        <v>207.87</v>
       </c>
     </row>
     <row r="16">
@@ -1140,16 +1140,16 @@
         <v>750</v>
       </c>
       <c r="C16" s="0">
-        <v>82.739999999999995</v>
+        <v>89.769999999999996</v>
       </c>
       <c r="D16" s="0">
-        <v>125.91</v>
+        <v>132.81</v>
       </c>
       <c r="E16" s="0">
-        <v>172.80000000000001</v>
+        <v>180.72</v>
       </c>
       <c r="F16" s="0">
-        <v>220.69</v>
+        <v>229.86000000000001</v>
       </c>
     </row>
     <row r="17">
@@ -1158,16 +1158,16 @@
         <v>800</v>
       </c>
       <c r="C17" s="0">
-        <v>94.920000000000002</v>
+        <v>102.42</v>
       </c>
       <c r="D17" s="0">
-        <v>140.97</v>
+        <v>148.33000000000001</v>
       </c>
       <c r="E17" s="0">
-        <v>190.99000000000001</v>
+        <v>199.43000000000001</v>
       </c>
       <c r="F17" s="0">
-        <v>242.06999999999999</v>
+        <v>251.85</v>
       </c>
     </row>
     <row r="18">
@@ -1176,16 +1176,16 @@
         <v>850</v>
       </c>
       <c r="C18" s="0">
-        <v>107.09999999999999</v>
+        <v>115.06999999999999</v>
       </c>
       <c r="D18" s="0">
-        <v>156.03</v>
+        <v>163.85</v>
       </c>
       <c r="E18" s="0">
-        <v>209.18000000000001</v>
+        <v>218.15000000000001</v>
       </c>
       <c r="F18" s="0">
-        <v>263.44999999999999</v>
+        <v>273.83999999999997</v>
       </c>
     </row>
     <row r="19">
@@ -1194,16 +1194,16 @@
         <v>900</v>
       </c>
       <c r="C19" s="0">
-        <v>119.28</v>
+        <v>127.72</v>
       </c>
       <c r="D19" s="0">
-        <v>171.09</v>
+        <v>179.37</v>
       </c>
       <c r="E19" s="0">
-        <v>227.36000000000001</v>
+        <v>236.86000000000001</v>
       </c>
       <c r="F19" s="0">
-        <v>284.82999999999999</v>
+        <v>295.82999999999999</v>
       </c>
     </row>
     <row r="20">
@@ -1212,16 +1212,16 @@
         <v>950</v>
       </c>
       <c r="C20" s="0">
-        <v>131.47</v>
+        <v>140.37</v>
       </c>
       <c r="D20" s="0">
-        <v>186.15000000000001</v>
+        <v>194.88999999999999</v>
       </c>
       <c r="E20" s="0">
-        <v>245.55000000000001</v>
+        <v>255.58000000000001</v>
       </c>
       <c r="F20" s="0">
-        <v>306.20999999999998</v>
+        <v>317.81999999999999</v>
       </c>
     </row>
     <row r="21">
@@ -1230,16 +1230,16 @@
         <v>1000</v>
       </c>
       <c r="C21" s="0">
-        <v>143.65000000000001</v>
+        <v>153.02000000000001</v>
       </c>
       <c r="D21" s="0">
-        <v>201.21000000000001</v>
+        <v>210.41</v>
       </c>
       <c r="E21" s="0">
-        <v>263.74000000000001</v>
+        <v>274.29000000000002</v>
       </c>
       <c r="F21" s="0">
-        <v>327.58999999999998</v>
+        <v>339.81</v>
       </c>
     </row>
   </sheetData>
@@ -1298,16 +1298,16 @@
         <v>100</v>
       </c>
       <c r="C3" s="0">
-        <v>-82.739999999999995</v>
+        <v>-82.790000000000006</v>
       </c>
       <c r="D3" s="0">
-        <v>-65.719999999999999</v>
+        <v>-66.030000000000001</v>
       </c>
       <c r="E3" s="0">
-        <v>-48.68</v>
+        <v>-49.509999999999998</v>
       </c>
       <c r="F3" s="0">
-        <v>-31.68</v>
+        <v>-33.07</v>
       </c>
     </row>
     <row r="4">
@@ -1316,16 +1316,16 @@
         <v>150</v>
       </c>
       <c r="C4" s="0">
-        <v>-74.099999999999994</v>
+        <v>-74.189999999999998</v>
       </c>
       <c r="D4" s="0">
-        <v>-48.579999999999998</v>
+        <v>-49.049999999999997</v>
       </c>
       <c r="E4" s="0">
-        <v>-23.02</v>
+        <v>-24.27</v>
       </c>
       <c r="F4" s="0">
-        <v>2.48</v>
+        <v>0.40000000000000002</v>
       </c>
     </row>
     <row r="5">
@@ -1334,16 +1334,16 @@
         <v>200</v>
       </c>
       <c r="C5" s="0">
-        <v>-65.469999999999999</v>
+        <v>-65.590000000000003</v>
       </c>
       <c r="D5" s="0">
-        <v>-31.440000000000001</v>
+        <v>-32.07</v>
       </c>
       <c r="E5" s="0">
-        <v>2.6400000000000001</v>
+        <v>0.97999999999999998</v>
       </c>
       <c r="F5" s="0">
-        <v>36.640000000000001</v>
+        <v>33.86</v>
       </c>
     </row>
     <row r="6">
@@ -1352,16 +1352,16 @@
         <v>250</v>
       </c>
       <c r="C6" s="0">
-        <v>-56.840000000000004</v>
+        <v>-56.979999999999997</v>
       </c>
       <c r="D6" s="0">
-        <v>-14.300000000000001</v>
+        <v>-15.08</v>
       </c>
       <c r="E6" s="0">
-        <v>28.300000000000001</v>
+        <v>26.219999999999999</v>
       </c>
       <c r="F6" s="0">
-        <v>70.799999999999997</v>
+        <v>67.329999999999998</v>
       </c>
     </row>
     <row r="7">
@@ -1370,16 +1370,16 @@
         <v>300</v>
       </c>
       <c r="C7" s="0">
-        <v>-48.210000000000001</v>
+        <v>-48.380000000000003</v>
       </c>
       <c r="D7" s="0">
-        <v>2.8399999999999999</v>
+        <v>1.8999999999999999</v>
       </c>
       <c r="E7" s="0">
-        <v>53.960000000000001</v>
+        <v>51.460000000000001</v>
       </c>
       <c r="F7" s="0">
-        <v>104.95999999999999</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="8">
@@ -1388,16 +1388,16 @@
         <v>350</v>
       </c>
       <c r="C8" s="0">
-        <v>-39.57</v>
+        <v>-39.780000000000001</v>
       </c>
       <c r="D8" s="0">
-        <v>19.989999999999999</v>
+        <v>18.879999999999999</v>
       </c>
       <c r="E8" s="0">
-        <v>79.620000000000005</v>
+        <v>76.709999999999994</v>
       </c>
       <c r="F8" s="0">
-        <v>139.11000000000001</v>
+        <v>134.25999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -1406,16 +1406,16 @@
         <v>400</v>
       </c>
       <c r="C9" s="0">
-        <v>-30.940000000000001</v>
+        <v>-31.170000000000002</v>
       </c>
       <c r="D9" s="0">
-        <v>37.130000000000003</v>
+        <v>35.86</v>
       </c>
       <c r="E9" s="0">
-        <v>105.28</v>
+        <v>101.95</v>
       </c>
       <c r="F9" s="0">
-        <v>173.27000000000001</v>
+        <v>167.72999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -1424,16 +1424,16 @@
         <v>450</v>
       </c>
       <c r="C10" s="0">
-        <v>-22.309999999999999</v>
+        <v>-22.57</v>
       </c>
       <c r="D10" s="0">
-        <v>54.270000000000003</v>
+        <v>52.850000000000001</v>
       </c>
       <c r="E10" s="0">
-        <v>130.94</v>
+        <v>127.2</v>
       </c>
       <c r="F10" s="0">
-        <v>207.43000000000001</v>
+        <v>201.19</v>
       </c>
     </row>
     <row r="11">
@@ -1442,16 +1442,16 @@
         <v>500</v>
       </c>
       <c r="C11" s="0">
-        <v>-13.68</v>
+        <v>-13.960000000000001</v>
       </c>
       <c r="D11" s="0">
-        <v>71.409999999999997</v>
+        <v>69.829999999999998</v>
       </c>
       <c r="E11" s="0">
-        <v>156.6</v>
+        <v>152.44</v>
       </c>
       <c r="F11" s="0">
-        <v>241.59</v>
+        <v>234.66</v>
       </c>
     </row>
     <row r="12">
@@ -1460,16 +1460,16 @@
         <v>550</v>
       </c>
       <c r="C12" s="0">
-        <v>-5.0499999999999998</v>
+        <v>-5.3600000000000003</v>
       </c>
       <c r="D12" s="0">
-        <v>88.549999999999997</v>
+        <v>86.810000000000002</v>
       </c>
       <c r="E12" s="0">
-        <v>182.25999999999999</v>
+        <v>177.69</v>
       </c>
       <c r="F12" s="0">
-        <v>275.75</v>
+        <v>268.13</v>
       </c>
     </row>
     <row r="13">
@@ -1478,16 +1478,16 @@
         <v>600</v>
       </c>
       <c r="C13" s="0">
-        <v>3.5899999999999999</v>
+        <v>3.2400000000000002</v>
       </c>
       <c r="D13" s="0">
-        <v>105.69</v>
+        <v>103.8</v>
       </c>
       <c r="E13" s="0">
-        <v>207.91999999999999</v>
+        <v>202.93000000000001</v>
       </c>
       <c r="F13" s="0">
-        <v>309.91000000000003</v>
+        <v>301.58999999999998</v>
       </c>
     </row>
     <row r="14">
@@ -1496,16 +1496,16 @@
         <v>650</v>
       </c>
       <c r="C14" s="0">
-        <v>12.220000000000001</v>
+        <v>11.85</v>
       </c>
       <c r="D14" s="0">
-        <v>122.83</v>
+        <v>120.78</v>
       </c>
       <c r="E14" s="0">
-        <v>233.58000000000001</v>
+        <v>228.16999999999999</v>
       </c>
       <c r="F14" s="0">
-        <v>344.06999999999999</v>
+        <v>335.06</v>
       </c>
     </row>
     <row r="15">
@@ -1514,16 +1514,16 @@
         <v>700</v>
       </c>
       <c r="C15" s="0">
-        <v>20.850000000000001</v>
+        <v>20.449999999999999</v>
       </c>
       <c r="D15" s="0">
-        <v>139.97</v>
+        <v>137.75999999999999</v>
       </c>
       <c r="E15" s="0">
-        <v>259.24000000000001</v>
+        <v>253.41999999999999</v>
       </c>
       <c r="F15" s="0">
-        <v>378.23000000000002</v>
+        <v>368.52999999999997</v>
       </c>
     </row>
     <row r="16">
@@ -1532,16 +1532,16 @@
         <v>750</v>
       </c>
       <c r="C16" s="0">
-        <v>29.48</v>
+        <v>29.050000000000001</v>
       </c>
       <c r="D16" s="0">
-        <v>157.11000000000001</v>
+        <v>154.75</v>
       </c>
       <c r="E16" s="0">
-        <v>284.89999999999998</v>
+        <v>278.66000000000003</v>
       </c>
       <c r="F16" s="0">
-        <v>412.38999999999999</v>
+        <v>401.99000000000001</v>
       </c>
     </row>
     <row r="17">
@@ -1550,16 +1550,16 @@
         <v>800</v>
       </c>
       <c r="C17" s="0">
-        <v>38.119999999999998</v>
+        <v>37.659999999999997</v>
       </c>
       <c r="D17" s="0">
-        <v>174.25</v>
+        <v>171.72999999999999</v>
       </c>
       <c r="E17" s="0">
-        <v>310.56</v>
+        <v>303.91000000000003</v>
       </c>
       <c r="F17" s="0">
-        <v>446.55000000000001</v>
+        <v>435.45999999999998</v>
       </c>
     </row>
     <row r="18">
@@ -1568,16 +1568,16 @@
         <v>850</v>
       </c>
       <c r="C18" s="0">
-        <v>46.75</v>
+        <v>46.259999999999998</v>
       </c>
       <c r="D18" s="0">
-        <v>191.38999999999999</v>
+        <v>188.71000000000001</v>
       </c>
       <c r="E18" s="0">
-        <v>336.22000000000003</v>
+        <v>329.14999999999998</v>
       </c>
       <c r="F18" s="0">
-        <v>480.70999999999998</v>
+        <v>468.92000000000002</v>
       </c>
     </row>
     <row r="19">
@@ -1586,16 +1586,16 @@
         <v>900</v>
       </c>
       <c r="C19" s="0">
-        <v>55.380000000000003</v>
+        <v>54.86</v>
       </c>
       <c r="D19" s="0">
-        <v>208.53</v>
+        <v>205.69999999999999</v>
       </c>
       <c r="E19" s="0">
-        <v>361.88</v>
+        <v>354.38999999999999</v>
       </c>
       <c r="F19" s="0">
-        <v>514.87</v>
+        <v>502.38999999999999</v>
       </c>
     </row>
     <row r="20">
@@ -1604,16 +1604,16 @@
         <v>950</v>
       </c>
       <c r="C20" s="0">
-        <v>64.010000000000005</v>
+        <v>63.469999999999999</v>
       </c>
       <c r="D20" s="0">
-        <v>225.66999999999999</v>
+        <v>222.68000000000001</v>
       </c>
       <c r="E20" s="0">
-        <v>387.54000000000002</v>
+        <v>379.63999999999999</v>
       </c>
       <c r="F20" s="0">
-        <v>549.01999999999998</v>
+        <v>535.86000000000001</v>
       </c>
     </row>
     <row r="21">
@@ -1622,16 +1622,16 @@
         <v>1000</v>
       </c>
       <c r="C21" s="0">
-        <v>72.640000000000001</v>
+        <v>72.069999999999993</v>
       </c>
       <c r="D21" s="0">
-        <v>242.81</v>
+        <v>239.66</v>
       </c>
       <c r="E21" s="0">
-        <v>413.19999999999999</v>
+        <v>404.88</v>
       </c>
       <c r="F21" s="0">
-        <v>583.17999999999995</v>
+        <v>569.32000000000005</v>
       </c>
     </row>
   </sheetData>
@@ -1690,16 +1690,16 @@
         <v>100</v>
       </c>
       <c r="C3" s="0">
-        <v>-83.969999999999999</v>
+        <v>-83.900000000000006</v>
       </c>
       <c r="D3" s="0">
-        <v>-76.870000000000005</v>
+        <v>-76.939999999999998</v>
       </c>
       <c r="E3" s="0">
-        <v>-68.959999999999994</v>
+        <v>-68.969999999999999</v>
       </c>
       <c r="F3" s="0">
-        <v>-60.729999999999997</v>
+        <v>-60.590000000000003</v>
       </c>
     </row>
     <row r="4">
@@ -1708,16 +1708,16 @@
         <v>150</v>
       </c>
       <c r="C4" s="0">
-        <v>-75.950000000000003</v>
+        <v>-75.849999999999994</v>
       </c>
       <c r="D4" s="0">
-        <v>-65.299999999999997</v>
+        <v>-65.420000000000002</v>
       </c>
       <c r="E4" s="0">
-        <v>-53.43</v>
+        <v>-53.450000000000003</v>
       </c>
       <c r="F4" s="0">
-        <v>-41.090000000000004</v>
+        <v>-40.880000000000003</v>
       </c>
     </row>
     <row r="5">
@@ -1726,16 +1726,16 @@
         <v>200</v>
       </c>
       <c r="C5" s="0">
-        <v>-67.930000000000007</v>
+        <v>-67.790000000000006</v>
       </c>
       <c r="D5" s="0">
-        <v>-53.729999999999997</v>
+        <v>-53.890000000000001</v>
       </c>
       <c r="E5" s="0">
-        <v>-37.909999999999997</v>
+        <v>-37.93</v>
       </c>
       <c r="F5" s="0">
-        <v>-21.460000000000001</v>
+        <v>-21.18</v>
       </c>
     </row>
     <row r="6">
@@ -1744,16 +1744,16 @@
         <v>250</v>
       </c>
       <c r="C6" s="0">
-        <v>-59.920000000000002</v>
+        <v>-59.740000000000002</v>
       </c>
       <c r="D6" s="0">
-        <v>-42.170000000000002</v>
+        <v>-42.36</v>
       </c>
       <c r="E6" s="0">
-        <v>-22.390000000000001</v>
+        <v>-22.41</v>
       </c>
       <c r="F6" s="0">
-        <v>-1.8200000000000001</v>
+        <v>-1.47</v>
       </c>
     </row>
     <row r="7">
@@ -1762,16 +1762,16 @@
         <v>300</v>
       </c>
       <c r="C7" s="0">
-        <v>-51.899999999999999</v>
+        <v>-51.689999999999998</v>
       </c>
       <c r="D7" s="0">
-        <v>-30.600000000000001</v>
+        <v>-30.829999999999998</v>
       </c>
       <c r="E7" s="0">
-        <v>-6.8700000000000001</v>
+        <v>-6.9000000000000004</v>
       </c>
       <c r="F7" s="0">
-        <v>17.809999999999999</v>
+        <v>18.23</v>
       </c>
     </row>
     <row r="8">
@@ -1780,16 +1780,16 @@
         <v>350</v>
       </c>
       <c r="C8" s="0">
-        <v>-43.880000000000003</v>
+        <v>-43.640000000000001</v>
       </c>
       <c r="D8" s="0">
-        <v>-19.030000000000001</v>
+        <v>-19.309999999999999</v>
       </c>
       <c r="E8" s="0">
-        <v>8.6600000000000001</v>
+        <v>8.6199999999999992</v>
       </c>
       <c r="F8" s="0">
-        <v>37.450000000000003</v>
+        <v>37.939999999999998</v>
       </c>
     </row>
     <row r="9">
@@ -1798,16 +1798,16 @@
         <v>400</v>
       </c>
       <c r="C9" s="0">
-        <v>-35.869999999999998</v>
+        <v>-35.590000000000004</v>
       </c>
       <c r="D9" s="0">
-        <v>-7.4699999999999998</v>
+        <v>-7.7800000000000002</v>
       </c>
       <c r="E9" s="0">
-        <v>24.18</v>
+        <v>24.140000000000001</v>
       </c>
       <c r="F9" s="0">
-        <v>57.079999999999998</v>
+        <v>57.649999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -1816,16 +1816,16 @@
         <v>450</v>
       </c>
       <c r="C10" s="0">
-        <v>-27.850000000000001</v>
+        <v>-27.539999999999999</v>
       </c>
       <c r="D10" s="0">
-        <v>4.0999999999999996</v>
+        <v>3.75</v>
       </c>
       <c r="E10" s="0">
-        <v>39.700000000000003</v>
+        <v>39.659999999999997</v>
       </c>
       <c r="F10" s="0">
-        <v>76.719999999999999</v>
+        <v>77.349999999999994</v>
       </c>
     </row>
     <row r="11">
@@ -1834,16 +1834,16 @@
         <v>500</v>
       </c>
       <c r="C11" s="0">
-        <v>-19.829999999999998</v>
+        <v>-19.489999999999999</v>
       </c>
       <c r="D11" s="0">
-        <v>15.67</v>
+        <v>15.279999999999999</v>
       </c>
       <c r="E11" s="0">
-        <v>55.219999999999999</v>
+        <v>55.170000000000002</v>
       </c>
       <c r="F11" s="0">
-        <v>96.349999999999994</v>
+        <v>97.060000000000002</v>
       </c>
     </row>
     <row r="12">
@@ -1852,16 +1852,16 @@
         <v>550</v>
       </c>
       <c r="C12" s="0">
-        <v>-11.82</v>
+        <v>-11.44</v>
       </c>
       <c r="D12" s="0">
-        <v>27.23</v>
+        <v>26.800000000000001</v>
       </c>
       <c r="E12" s="0">
-        <v>70.75</v>
+        <v>70.689999999999998</v>
       </c>
       <c r="F12" s="0">
-        <v>115.98999999999999</v>
+        <v>116.76000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -1870,16 +1870,16 @@
         <v>600</v>
       </c>
       <c r="C13" s="0">
-        <v>-3.7999999999999998</v>
+        <v>-3.3799999999999999</v>
       </c>
       <c r="D13" s="0">
-        <v>38.799999999999997</v>
+        <v>38.329999999999998</v>
       </c>
       <c r="E13" s="0">
-        <v>86.269999999999996</v>
+        <v>86.209999999999994</v>
       </c>
       <c r="F13" s="0">
-        <v>135.62</v>
+        <v>136.47</v>
       </c>
     </row>
     <row r="14">
@@ -1888,16 +1888,16 @@
         <v>650</v>
       </c>
       <c r="C14" s="0">
-        <v>4.2199999999999998</v>
+        <v>4.6699999999999999</v>
       </c>
       <c r="D14" s="0">
-        <v>50.369999999999998</v>
+        <v>49.86</v>
       </c>
       <c r="E14" s="0">
-        <v>101.79000000000001</v>
+        <v>101.72</v>
       </c>
       <c r="F14" s="0">
-        <v>155.25999999999999</v>
+        <v>156.16999999999999</v>
       </c>
     </row>
     <row r="15">
@@ -1906,16 +1906,16 @@
         <v>700</v>
       </c>
       <c r="C15" s="0">
-        <v>12.23</v>
+        <v>12.720000000000001</v>
       </c>
       <c r="D15" s="0">
-        <v>61.93</v>
+        <v>61.390000000000001</v>
       </c>
       <c r="E15" s="0">
-        <v>117.31</v>
+        <v>117.23999999999999</v>
       </c>
       <c r="F15" s="0">
-        <v>174.88999999999999</v>
+        <v>175.88</v>
       </c>
     </row>
     <row r="16">
@@ -1924,16 +1924,16 @@
         <v>750</v>
       </c>
       <c r="C16" s="0">
-        <v>20.25</v>
+        <v>20.77</v>
       </c>
       <c r="D16" s="0">
-        <v>73.5</v>
+        <v>72.909999999999997</v>
       </c>
       <c r="E16" s="0">
-        <v>132.83000000000001</v>
+        <v>132.75999999999999</v>
       </c>
       <c r="F16" s="0">
-        <v>194.53</v>
+        <v>195.59</v>
       </c>
     </row>
     <row r="17">
@@ -1942,16 +1942,16 @@
         <v>800</v>
       </c>
       <c r="C17" s="0">
-        <v>28.27</v>
+        <v>28.82</v>
       </c>
       <c r="D17" s="0">
-        <v>85.069999999999993</v>
+        <v>84.439999999999998</v>
       </c>
       <c r="E17" s="0">
-        <v>148.36000000000001</v>
+        <v>148.28</v>
       </c>
       <c r="F17" s="0">
-        <v>214.16</v>
+        <v>215.28999999999999</v>
       </c>
     </row>
     <row r="18">
@@ -1960,16 +1960,16 @@
         <v>850</v>
       </c>
       <c r="C18" s="0">
-        <v>36.280000000000001</v>
+        <v>36.869999999999998</v>
       </c>
       <c r="D18" s="0">
-        <v>96.629999999999996</v>
+        <v>95.969999999999999</v>
       </c>
       <c r="E18" s="0">
-        <v>163.88</v>
+        <v>163.78999999999999</v>
       </c>
       <c r="F18" s="0">
-        <v>233.80000000000001</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19">
@@ -1978,16 +1978,16 @@
         <v>900</v>
       </c>
       <c r="C19" s="0">
-        <v>44.299999999999997</v>
+        <v>44.920000000000002</v>
       </c>
       <c r="D19" s="0">
-        <v>108.2</v>
+        <v>107.5</v>
       </c>
       <c r="E19" s="0">
-        <v>179.40000000000001</v>
+        <v>179.31</v>
       </c>
       <c r="F19" s="0">
-        <v>253.43000000000001</v>
+        <v>254.69999999999999</v>
       </c>
     </row>
     <row r="20">
@@ -1996,16 +1996,16 @@
         <v>950</v>
       </c>
       <c r="C20" s="0">
-        <v>52.32</v>
+        <v>52.969999999999999</v>
       </c>
       <c r="D20" s="0">
-        <v>119.77</v>
+        <v>119.02</v>
       </c>
       <c r="E20" s="0">
-        <v>194.91999999999999</v>
+        <v>194.83000000000001</v>
       </c>
       <c r="F20" s="0">
-        <v>273.06999999999999</v>
+        <v>274.41000000000003</v>
       </c>
     </row>
     <row r="21">
@@ -2014,16 +2014,16 @@
         <v>1000</v>
       </c>
       <c r="C21" s="0">
-        <v>60.329999999999998</v>
+        <v>61.030000000000001</v>
       </c>
       <c r="D21" s="0">
-        <v>131.33000000000001</v>
+        <v>130.55000000000001</v>
       </c>
       <c r="E21" s="0">
-        <v>210.44999999999999</v>
+        <v>210.35</v>
       </c>
       <c r="F21" s="0">
-        <v>292.69999999999999</v>
+        <v>294.11000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2082,16 +2082,16 @@
         <v>100</v>
       </c>
       <c r="C3" s="0">
-        <v>-68.299999999999997</v>
+        <v>-64.030000000000001</v>
       </c>
       <c r="D3" s="0">
-        <v>-61.369999999999998</v>
+        <v>-57.25</v>
       </c>
       <c r="E3" s="0">
-        <v>-53.829999999999998</v>
+        <v>-49.759999999999998</v>
       </c>
       <c r="F3" s="0">
-        <v>-46.130000000000003</v>
+        <v>-42.090000000000004</v>
       </c>
     </row>
     <row r="4">
@@ -2100,16 +2100,16 @@
         <v>150</v>
       </c>
       <c r="C4" s="0">
-        <v>-52.460000000000001</v>
+        <v>-46.039999999999999</v>
       </c>
       <c r="D4" s="0">
-        <v>-42.060000000000002</v>
+        <v>-35.880000000000003</v>
       </c>
       <c r="E4" s="0">
-        <v>-30.75</v>
+        <v>-24.640000000000001</v>
       </c>
       <c r="F4" s="0">
-        <v>-19.190000000000001</v>
+        <v>-13.130000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -2118,16 +2118,16 @@
         <v>200</v>
       </c>
       <c r="C5" s="0">
-        <v>-36.61</v>
+        <v>-28.050000000000001</v>
       </c>
       <c r="D5" s="0">
-        <v>-22.739999999999999</v>
+        <v>-14.5</v>
       </c>
       <c r="E5" s="0">
-        <v>-7.6699999999999999</v>
+        <v>0.47999999999999998</v>
       </c>
       <c r="F5" s="0">
-        <v>7.7400000000000002</v>
+        <v>15.83</v>
       </c>
     </row>
     <row r="6">
@@ -2136,16 +2136,16 @@
         <v>250</v>
       </c>
       <c r="C6" s="0">
-        <v>-20.760000000000002</v>
+        <v>-10.07</v>
       </c>
       <c r="D6" s="0">
-        <v>-3.4300000000000002</v>
+        <v>6.8700000000000001</v>
       </c>
       <c r="E6" s="0">
-        <v>15.42</v>
+        <v>25.600000000000001</v>
       </c>
       <c r="F6" s="0">
-        <v>34.68</v>
+        <v>44.789999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -2154,16 +2154,16 @@
         <v>300</v>
       </c>
       <c r="C7" s="0">
-        <v>-4.9100000000000001</v>
+        <v>7.9199999999999999</v>
       </c>
       <c r="D7" s="0">
-        <v>15.880000000000001</v>
+        <v>28.25</v>
       </c>
       <c r="E7" s="0">
-        <v>38.5</v>
+        <v>50.719999999999999</v>
       </c>
       <c r="F7" s="0">
-        <v>61.619999999999998</v>
+        <v>73.739999999999995</v>
       </c>
     </row>
     <row r="8">
@@ -2172,16 +2172,16 @@
         <v>350</v>
       </c>
       <c r="C8" s="0">
-        <v>10.93</v>
+        <v>25.91</v>
       </c>
       <c r="D8" s="0">
-        <v>35.200000000000003</v>
+        <v>49.619999999999998</v>
       </c>
       <c r="E8" s="0">
-        <v>61.579999999999998</v>
+        <v>75.840000000000003</v>
       </c>
       <c r="F8" s="0">
-        <v>88.549999999999997</v>
+        <v>102.7</v>
       </c>
     </row>
     <row r="9">
@@ -2190,16 +2190,16 @@
         <v>400</v>
       </c>
       <c r="C9" s="0">
-        <v>26.780000000000001</v>
+        <v>43.890000000000001</v>
       </c>
       <c r="D9" s="0">
-        <v>54.509999999999998</v>
+        <v>71</v>
       </c>
       <c r="E9" s="0">
-        <v>84.670000000000002</v>
+        <v>100.97</v>
       </c>
       <c r="F9" s="0">
-        <v>115.48999999999999</v>
+        <v>131.66</v>
       </c>
     </row>
     <row r="10">
@@ -2208,16 +2208,16 @@
         <v>450</v>
       </c>
       <c r="C10" s="0">
-        <v>42.630000000000003</v>
+        <v>61.880000000000003</v>
       </c>
       <c r="D10" s="0">
-        <v>73.829999999999998</v>
+        <v>92.370000000000005</v>
       </c>
       <c r="E10" s="0">
-        <v>107.75</v>
+        <v>126.09</v>
       </c>
       <c r="F10" s="0">
-        <v>142.43000000000001</v>
+        <v>160.61000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -2226,16 +2226,16 @@
         <v>500</v>
       </c>
       <c r="C11" s="0">
-        <v>58.479999999999997</v>
+        <v>79.870000000000005</v>
       </c>
       <c r="D11" s="0">
-        <v>93.140000000000001</v>
+        <v>113.75</v>
       </c>
       <c r="E11" s="0">
-        <v>130.84</v>
+        <v>151.21000000000001</v>
       </c>
       <c r="F11" s="0">
-        <v>169.36000000000001</v>
+        <v>189.56999999999999</v>
       </c>
     </row>
     <row r="12">
@@ -2244,16 +2244,16 @@
         <v>550</v>
       </c>
       <c r="C12" s="0">
-        <v>74.329999999999998</v>
+        <v>97.849999999999994</v>
       </c>
       <c r="D12" s="0">
-        <v>112.45</v>
+        <v>135.12</v>
       </c>
       <c r="E12" s="0">
-        <v>153.91999999999999</v>
+        <v>176.33000000000001</v>
       </c>
       <c r="F12" s="0">
-        <v>196.30000000000001</v>
+        <v>218.53</v>
       </c>
     </row>
     <row r="13">
@@ -2262,16 +2262,16 @@
         <v>600</v>
       </c>
       <c r="C13" s="0">
-        <v>90.170000000000002</v>
+        <v>115.84</v>
       </c>
       <c r="D13" s="0">
-        <v>131.77000000000001</v>
+        <v>156.5</v>
       </c>
       <c r="E13" s="0">
-        <v>177</v>
+        <v>201.44999999999999</v>
       </c>
       <c r="F13" s="0">
-        <v>223.22999999999999</v>
+        <v>247.49000000000001</v>
       </c>
     </row>
     <row r="14">
@@ -2280,16 +2280,16 @@
         <v>650</v>
       </c>
       <c r="C14" s="0">
-        <v>106.02</v>
+        <v>133.83000000000001</v>
       </c>
       <c r="D14" s="0">
-        <v>151.08000000000001</v>
+        <v>177.87</v>
       </c>
       <c r="E14" s="0">
-        <v>200.09</v>
+        <v>226.56999999999999</v>
       </c>
       <c r="F14" s="0">
-        <v>250.16999999999999</v>
+        <v>276.44</v>
       </c>
     </row>
     <row r="15">
@@ -2298,16 +2298,16 @@
         <v>700</v>
       </c>
       <c r="C15" s="0">
-        <v>121.87</v>
+        <v>151.81</v>
       </c>
       <c r="D15" s="0">
-        <v>170.40000000000001</v>
+        <v>199.25</v>
       </c>
       <c r="E15" s="0">
-        <v>223.16999999999999</v>
+        <v>251.69</v>
       </c>
       <c r="F15" s="0">
-        <v>277.11000000000001</v>
+        <v>305.39999999999998</v>
       </c>
     </row>
     <row r="16">
@@ -2316,16 +2316,16 @@
         <v>750</v>
       </c>
       <c r="C16" s="0">
-        <v>137.72</v>
+        <v>169.80000000000001</v>
       </c>
       <c r="D16" s="0">
-        <v>189.71000000000001</v>
+        <v>220.62</v>
       </c>
       <c r="E16" s="0">
-        <v>246.25</v>
+        <v>276.81</v>
       </c>
       <c r="F16" s="0">
-        <v>304.04000000000002</v>
+        <v>334.36000000000001</v>
       </c>
     </row>
     <row r="17">
@@ -2334,16 +2334,16 @@
         <v>800</v>
       </c>
       <c r="C17" s="0">
-        <v>153.56999999999999</v>
+        <v>187.78999999999999</v>
       </c>
       <c r="D17" s="0">
-        <v>209.02000000000001</v>
+        <v>242</v>
       </c>
       <c r="E17" s="0">
-        <v>269.33999999999997</v>
+        <v>301.93000000000001</v>
       </c>
       <c r="F17" s="0">
-        <v>330.98000000000002</v>
+        <v>363.31</v>
       </c>
     </row>
     <row r="18">
@@ -2352,16 +2352,16 @@
         <v>850</v>
       </c>
       <c r="C18" s="0">
-        <v>169.41</v>
+        <v>205.77000000000001</v>
       </c>
       <c r="D18" s="0">
-        <v>228.34</v>
+        <v>263.37</v>
       </c>
       <c r="E18" s="0">
-        <v>292.42000000000002</v>
+        <v>327.05000000000001</v>
       </c>
       <c r="F18" s="0">
-        <v>357.92000000000002</v>
+        <v>392.26999999999998</v>
       </c>
     </row>
     <row r="19">
@@ -2370,16 +2370,16 @@
         <v>900</v>
       </c>
       <c r="C19" s="0">
-        <v>185.25999999999999</v>
+        <v>223.75999999999999</v>
       </c>
       <c r="D19" s="0">
-        <v>247.65000000000001</v>
+        <v>284.75</v>
       </c>
       <c r="E19" s="0">
-        <v>315.5</v>
+        <v>352.17000000000002</v>
       </c>
       <c r="F19" s="0">
-        <v>384.85000000000002</v>
+        <v>421.23000000000002</v>
       </c>
     </row>
     <row r="20">
@@ -2388,16 +2388,16 @@
         <v>950</v>
       </c>
       <c r="C20" s="0">
-        <v>201.11000000000001</v>
+        <v>241.75</v>
       </c>
       <c r="D20" s="0">
-        <v>266.97000000000003</v>
+        <v>306.12</v>
       </c>
       <c r="E20" s="0">
-        <v>338.58999999999998</v>
+        <v>377.29000000000002</v>
       </c>
       <c r="F20" s="0">
-        <v>411.79000000000002</v>
+        <v>450.19</v>
       </c>
     </row>
     <row r="21">
@@ -2406,16 +2406,16 @@
         <v>1000</v>
       </c>
       <c r="C21" s="0">
-        <v>216.96000000000001</v>
+        <v>259.73000000000002</v>
       </c>
       <c r="D21" s="0">
-        <v>286.27999999999997</v>
+        <v>327.5</v>
       </c>
       <c r="E21" s="0">
-        <v>361.67000000000002</v>
+        <v>402.41000000000003</v>
       </c>
       <c r="F21" s="0">
-        <v>438.72000000000003</v>
+        <v>479.13999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/RIF/Tables/Cmax_comparisons.xlsx
+++ b/Outputs/RIF/Tables/Cmax_comparisons.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="87" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="93" uniqueCount="3">
   <si>
     <t>Cmax; % Higher than Oral Dose</t>
   </si>
@@ -122,16 +122,16 @@
         <v>100</v>
       </c>
       <c r="C3" s="0">
-        <v>-65.120000000000005</v>
+        <v>-72.030000000000001</v>
       </c>
       <c r="D3" s="0">
-        <v>-58.369999999999998</v>
+        <v>-65.030000000000001</v>
       </c>
       <c r="E3" s="0">
-        <v>-50.850000000000001</v>
+        <v>-57.299999999999997</v>
       </c>
       <c r="F3" s="0">
-        <v>-43.119999999999998</v>
+        <v>-49.36</v>
       </c>
     </row>
     <row r="4">
@@ -140,16 +140,16 @@
         <v>150</v>
       </c>
       <c r="C4" s="0">
-        <v>-47.68</v>
+        <v>-58.039999999999999</v>
       </c>
       <c r="D4" s="0">
-        <v>-37.560000000000002</v>
+        <v>-47.549999999999997</v>
       </c>
       <c r="E4" s="0">
-        <v>-26.27</v>
+        <v>-35.950000000000003</v>
       </c>
       <c r="F4" s="0">
-        <v>-14.68</v>
+        <v>-24.030000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -158,16 +158,16 @@
         <v>200</v>
       </c>
       <c r="C5" s="0">
-        <v>-30.239999999999999</v>
+        <v>-44.060000000000002</v>
       </c>
       <c r="D5" s="0">
-        <v>-16.75</v>
+        <v>-30.059999999999999</v>
       </c>
       <c r="E5" s="0">
-        <v>-1.7</v>
+        <v>-14.59</v>
       </c>
       <c r="F5" s="0">
-        <v>13.76</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="6">
@@ -176,16 +176,16 @@
         <v>250</v>
       </c>
       <c r="C6" s="0">
-        <v>-12.800000000000001</v>
+        <v>-30.07</v>
       </c>
       <c r="D6" s="0">
-        <v>4.0599999999999996</v>
+        <v>-12.58</v>
       </c>
       <c r="E6" s="0">
-        <v>22.879999999999999</v>
+        <v>6.7599999999999998</v>
       </c>
       <c r="F6" s="0">
-        <v>42.200000000000003</v>
+        <v>26.61</v>
       </c>
     </row>
     <row r="7">
@@ -194,16 +194,16 @@
         <v>300</v>
       </c>
       <c r="C7" s="0">
-        <v>4.6299999999999999</v>
+        <v>-16.079999999999998</v>
       </c>
       <c r="D7" s="0">
-        <v>24.879999999999999</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E7" s="0">
-        <v>47.450000000000003</v>
+        <v>28.11</v>
       </c>
       <c r="F7" s="0">
-        <v>70.640000000000001</v>
+        <v>51.93</v>
       </c>
     </row>
     <row r="8">
@@ -212,16 +212,16 @@
         <v>350</v>
       </c>
       <c r="C8" s="0">
-        <v>22.07</v>
+        <v>-2.1000000000000001</v>
       </c>
       <c r="D8" s="0">
-        <v>45.689999999999998</v>
+        <v>22.390000000000001</v>
       </c>
       <c r="E8" s="0">
-        <v>72.030000000000001</v>
+        <v>49.460000000000001</v>
       </c>
       <c r="F8" s="0">
-        <v>99.090000000000003</v>
+        <v>77.25</v>
       </c>
     </row>
     <row r="9">
@@ -230,16 +230,16 @@
         <v>400</v>
       </c>
       <c r="C9" s="0">
-        <v>39.509999999999998</v>
+        <v>11.890000000000001</v>
       </c>
       <c r="D9" s="0">
-        <v>66.5</v>
+        <v>39.869999999999998</v>
       </c>
       <c r="E9" s="0">
-        <v>96.599999999999994</v>
+        <v>70.810000000000002</v>
       </c>
       <c r="F9" s="0">
-        <v>127.53</v>
+        <v>102.56999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -248,16 +248,16 @@
         <v>450</v>
       </c>
       <c r="C10" s="0">
-        <v>56.950000000000003</v>
+        <v>25.870000000000001</v>
       </c>
       <c r="D10" s="0">
-        <v>87.319999999999993</v>
+        <v>57.350000000000001</v>
       </c>
       <c r="E10" s="0">
-        <v>121.18000000000001</v>
+        <v>92.159999999999997</v>
       </c>
       <c r="F10" s="0">
-        <v>155.97</v>
+        <v>127.90000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -266,16 +266,16 @@
         <v>500</v>
       </c>
       <c r="C11" s="0">
-        <v>74.390000000000001</v>
+        <v>39.86</v>
       </c>
       <c r="D11" s="0">
-        <v>108.13</v>
+        <v>74.840000000000003</v>
       </c>
       <c r="E11" s="0">
-        <v>145.75999999999999</v>
+        <v>113.52</v>
       </c>
       <c r="F11" s="0">
-        <v>184.41</v>
+        <v>153.22</v>
       </c>
     </row>
     <row r="12">
@@ -284,16 +284,16 @@
         <v>550</v>
       </c>
       <c r="C12" s="0">
-        <v>91.829999999999998</v>
+        <v>53.850000000000001</v>
       </c>
       <c r="D12" s="0">
-        <v>128.94</v>
+        <v>92.319999999999993</v>
       </c>
       <c r="E12" s="0">
-        <v>170.33000000000001</v>
+        <v>134.87</v>
       </c>
       <c r="F12" s="0">
-        <v>212.85</v>
+        <v>178.53999999999999</v>
       </c>
     </row>
     <row r="13">
@@ -302,16 +302,16 @@
         <v>600</v>
       </c>
       <c r="C13" s="0">
-        <v>109.27</v>
+        <v>67.829999999999998</v>
       </c>
       <c r="D13" s="0">
-        <v>149.75999999999999</v>
+        <v>109.81</v>
       </c>
       <c r="E13" s="0">
-        <v>194.91</v>
+        <v>156.22</v>
       </c>
       <c r="F13" s="0">
-        <v>241.28999999999999</v>
+        <v>203.86000000000001</v>
       </c>
     </row>
     <row r="14">
@@ -320,16 +320,16 @@
         <v>650</v>
       </c>
       <c r="C14" s="0">
-        <v>126.70999999999999</v>
+        <v>81.819999999999993</v>
       </c>
       <c r="D14" s="0">
-        <v>170.56999999999999</v>
+        <v>127.29000000000001</v>
       </c>
       <c r="E14" s="0">
-        <v>219.47999999999999</v>
+        <v>177.56999999999999</v>
       </c>
       <c r="F14" s="0">
-        <v>269.73000000000002</v>
+        <v>229.18000000000001</v>
       </c>
     </row>
     <row r="15">
@@ -338,16 +338,16 @@
         <v>700</v>
       </c>
       <c r="C15" s="0">
-        <v>144.15000000000001</v>
+        <v>95.799999999999997</v>
       </c>
       <c r="D15" s="0">
-        <v>191.38</v>
+        <v>144.77000000000001</v>
       </c>
       <c r="E15" s="0">
-        <v>244.06</v>
+        <v>198.91999999999999</v>
       </c>
       <c r="F15" s="0">
-        <v>298.17000000000002</v>
+        <v>254.5</v>
       </c>
     </row>
     <row r="16">
@@ -356,16 +356,16 @@
         <v>750</v>
       </c>
       <c r="C16" s="0">
-        <v>161.59</v>
+        <v>109.79000000000001</v>
       </c>
       <c r="D16" s="0">
-        <v>212.19</v>
+        <v>162.25999999999999</v>
       </c>
       <c r="E16" s="0">
-        <v>268.63</v>
+        <v>220.27000000000001</v>
       </c>
       <c r="F16" s="0">
-        <v>326.61000000000001</v>
+        <v>279.82999999999999</v>
       </c>
     </row>
     <row r="17">
@@ -374,16 +374,16 @@
         <v>800</v>
       </c>
       <c r="C17" s="0">
-        <v>179.03</v>
+        <v>123.78</v>
       </c>
       <c r="D17" s="0">
-        <v>233.00999999999999</v>
+        <v>179.74000000000001</v>
       </c>
       <c r="E17" s="0">
-        <v>293.20999999999998</v>
+        <v>241.63</v>
       </c>
       <c r="F17" s="0">
-        <v>355.05000000000001</v>
+        <v>305.14999999999998</v>
       </c>
     </row>
     <row r="18">
@@ -392,16 +392,16 @@
         <v>850</v>
       </c>
       <c r="C18" s="0">
-        <v>196.47</v>
+        <v>137.75999999999999</v>
       </c>
       <c r="D18" s="0">
-        <v>253.81999999999999</v>
+        <v>197.22999999999999</v>
       </c>
       <c r="E18" s="0">
-        <v>317.79000000000002</v>
+        <v>262.98000000000002</v>
       </c>
       <c r="F18" s="0">
-        <v>383.49000000000001</v>
+        <v>330.47000000000003</v>
       </c>
     </row>
     <row r="19">
@@ -410,16 +410,16 @@
         <v>900</v>
       </c>
       <c r="C19" s="0">
-        <v>213.90000000000001</v>
+        <v>151.75</v>
       </c>
       <c r="D19" s="0">
-        <v>274.63</v>
+        <v>214.71000000000001</v>
       </c>
       <c r="E19" s="0">
-        <v>342.36000000000001</v>
+        <v>284.32999999999999</v>
       </c>
       <c r="F19" s="0">
-        <v>411.93000000000001</v>
+        <v>355.79000000000002</v>
       </c>
     </row>
     <row r="20">
@@ -428,16 +428,16 @@
         <v>950</v>
       </c>
       <c r="C20" s="0">
-        <v>231.34</v>
+        <v>165.72999999999999</v>
       </c>
       <c r="D20" s="0">
-        <v>295.44999999999999</v>
+        <v>232.19</v>
       </c>
       <c r="E20" s="0">
-        <v>366.94</v>
+        <v>305.68000000000001</v>
       </c>
       <c r="F20" s="0">
-        <v>440.37</v>
+        <v>381.11000000000001</v>
       </c>
     </row>
     <row r="21">
@@ -446,16 +446,16 @@
         <v>1000</v>
       </c>
       <c r="C21" s="0">
-        <v>248.78</v>
+        <v>179.72</v>
       </c>
       <c r="D21" s="0">
-        <v>316.25999999999999</v>
+        <v>249.68000000000001</v>
       </c>
       <c r="E21" s="0">
-        <v>391.50999999999999</v>
+        <v>327.02999999999997</v>
       </c>
       <c r="F21" s="0">
-        <v>468.81999999999999</v>
+        <v>406.43000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -906,16 +906,16 @@
         <v>100</v>
       </c>
       <c r="C3" s="0">
-        <v>-74.700000000000003</v>
+        <v>-76.390000000000001</v>
       </c>
       <c r="D3" s="0">
-        <v>-68.959999999999994</v>
+        <v>-69.950000000000003</v>
       </c>
       <c r="E3" s="0">
-        <v>-62.57</v>
+        <v>-62.840000000000003</v>
       </c>
       <c r="F3" s="0">
-        <v>-56.020000000000003</v>
+        <v>-55.549999999999997</v>
       </c>
     </row>
     <row r="4">
@@ -924,16 +924,16 @@
         <v>150</v>
       </c>
       <c r="C4" s="0">
-        <v>-62.049999999999997</v>
+        <v>-64.590000000000003</v>
       </c>
       <c r="D4" s="0">
-        <v>-53.439999999999998</v>
+        <v>-54.920000000000002</v>
       </c>
       <c r="E4" s="0">
-        <v>-43.86</v>
+        <v>-44.25</v>
       </c>
       <c r="F4" s="0">
-        <v>-34.030000000000001</v>
+        <v>-33.32</v>
       </c>
     </row>
     <row r="5">
@@ -942,16 +942,16 @@
         <v>200</v>
       </c>
       <c r="C5" s="0">
-        <v>-49.399999999999999</v>
+        <v>-52.780000000000001</v>
       </c>
       <c r="D5" s="0">
-        <v>-37.920000000000002</v>
+        <v>-39.890000000000001</v>
       </c>
       <c r="E5" s="0">
-        <v>-25.140000000000001</v>
+        <v>-25.670000000000002</v>
       </c>
       <c r="F5" s="0">
-        <v>-12.039999999999999</v>
+        <v>-11.09</v>
       </c>
     </row>
     <row r="6">
@@ -960,16 +960,16 @@
         <v>250</v>
       </c>
       <c r="C6" s="0">
-        <v>-36.740000000000002</v>
+        <v>-40.979999999999997</v>
       </c>
       <c r="D6" s="0">
-        <v>-22.399999999999999</v>
+        <v>-24.870000000000001</v>
       </c>
       <c r="E6" s="0">
-        <v>-6.4299999999999997</v>
+        <v>-7.0899999999999999</v>
       </c>
       <c r="F6" s="0">
-        <v>9.9499999999999993</v>
+        <v>11.130000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -978,16 +978,16 @@
         <v>300</v>
       </c>
       <c r="C7" s="0">
-        <v>-24.09</v>
+        <v>-29.170000000000002</v>
       </c>
       <c r="D7" s="0">
-        <v>-6.8799999999999999</v>
+        <v>-9.8399999999999999</v>
       </c>
       <c r="E7" s="0">
-        <v>12.289999999999999</v>
+        <v>11.49</v>
       </c>
       <c r="F7" s="0">
-        <v>31.940000000000001</v>
+        <v>33.36</v>
       </c>
     </row>
     <row r="8">
@@ -996,16 +996,16 @@
         <v>350</v>
       </c>
       <c r="C8" s="0">
-        <v>-11.44</v>
+        <v>-17.370000000000001</v>
       </c>
       <c r="D8" s="0">
-        <v>8.6400000000000006</v>
+        <v>5.1900000000000004</v>
       </c>
       <c r="E8" s="0">
-        <v>31</v>
+        <v>30.079999999999998</v>
       </c>
       <c r="F8" s="0">
-        <v>53.939999999999998</v>
+        <v>55.590000000000004</v>
       </c>
     </row>
     <row r="9">
@@ -1014,16 +1014,16 @@
         <v>400</v>
       </c>
       <c r="C9" s="0">
-        <v>1.21</v>
+        <v>-5.5599999999999996</v>
       </c>
       <c r="D9" s="0">
-        <v>24.16</v>
+        <v>20.210000000000001</v>
       </c>
       <c r="E9" s="0">
-        <v>49.719999999999999</v>
+        <v>48.659999999999997</v>
       </c>
       <c r="F9" s="0">
-        <v>75.930000000000007</v>
+        <v>77.819999999999993</v>
       </c>
     </row>
     <row r="10">
@@ -1032,16 +1032,16 @@
         <v>450</v>
       </c>
       <c r="C10" s="0">
-        <v>13.859999999999999</v>
+        <v>6.2400000000000002</v>
       </c>
       <c r="D10" s="0">
-        <v>39.68</v>
+        <v>35.240000000000002</v>
       </c>
       <c r="E10" s="0">
-        <v>68.430000000000007</v>
+        <v>67.239999999999995</v>
       </c>
       <c r="F10" s="0">
-        <v>97.920000000000002</v>
+        <v>100.04000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -1050,16 +1050,16 @@
         <v>500</v>
       </c>
       <c r="C11" s="0">
-        <v>26.510000000000002</v>
+        <v>18.050000000000001</v>
       </c>
       <c r="D11" s="0">
-        <v>55.200000000000003</v>
+        <v>50.270000000000003</v>
       </c>
       <c r="E11" s="0">
-        <v>87.150000000000006</v>
+        <v>85.819999999999993</v>
       </c>
       <c r="F11" s="0">
-        <v>119.91</v>
+        <v>122.27</v>
       </c>
     </row>
     <row r="12">
@@ -1068,16 +1068,16 @@
         <v>550</v>
       </c>
       <c r="C12" s="0">
-        <v>39.159999999999997</v>
+        <v>29.850000000000001</v>
       </c>
       <c r="D12" s="0">
-        <v>70.719999999999999</v>
+        <v>65.290000000000006</v>
       </c>
       <c r="E12" s="0">
-        <v>105.86</v>
+        <v>104.41</v>
       </c>
       <c r="F12" s="0">
-        <v>141.90000000000001</v>
+        <v>144.5</v>
       </c>
     </row>
     <row r="13">
@@ -1086,16 +1086,16 @@
         <v>600</v>
       </c>
       <c r="C13" s="0">
-        <v>51.810000000000002</v>
+        <v>41.649999999999999</v>
       </c>
       <c r="D13" s="0">
-        <v>86.239999999999995</v>
+        <v>80.319999999999993</v>
       </c>
       <c r="E13" s="0">
-        <v>124.56999999999999</v>
+        <v>122.98999999999999</v>
       </c>
       <c r="F13" s="0">
-        <v>163.88999999999999</v>
+        <v>166.72</v>
       </c>
     </row>
     <row r="14">
@@ -1104,16 +1104,16 @@
         <v>650</v>
       </c>
       <c r="C14" s="0">
-        <v>64.459999999999994</v>
+        <v>53.460000000000001</v>
       </c>
       <c r="D14" s="0">
-        <v>101.76000000000001</v>
+        <v>95.349999999999994</v>
       </c>
       <c r="E14" s="0">
-        <v>143.28999999999999</v>
+        <v>141.56999999999999</v>
       </c>
       <c r="F14" s="0">
-        <v>185.88</v>
+        <v>188.94999999999999</v>
       </c>
     </row>
     <row r="15">
@@ -1122,16 +1122,16 @@
         <v>700</v>
       </c>
       <c r="C15" s="0">
-        <v>77.120000000000005</v>
+        <v>65.260000000000005</v>
       </c>
       <c r="D15" s="0">
-        <v>117.29000000000001</v>
+        <v>110.37</v>
       </c>
       <c r="E15" s="0">
-        <v>162</v>
+        <v>160.15000000000001</v>
       </c>
       <c r="F15" s="0">
-        <v>207.87</v>
+        <v>211.18000000000001</v>
       </c>
     </row>
     <row r="16">
@@ -1140,16 +1140,16 @@
         <v>750</v>
       </c>
       <c r="C16" s="0">
-        <v>89.769999999999996</v>
+        <v>77.069999999999993</v>
       </c>
       <c r="D16" s="0">
-        <v>132.81</v>
+        <v>125.40000000000001</v>
       </c>
       <c r="E16" s="0">
-        <v>180.72</v>
+        <v>178.74000000000001</v>
       </c>
       <c r="F16" s="0">
-        <v>229.86000000000001</v>
+        <v>233.40000000000001</v>
       </c>
     </row>
     <row r="17">
@@ -1158,16 +1158,16 @@
         <v>800</v>
       </c>
       <c r="C17" s="0">
-        <v>102.42</v>
+        <v>88.870000000000005</v>
       </c>
       <c r="D17" s="0">
-        <v>148.33000000000001</v>
+        <v>140.43000000000001</v>
       </c>
       <c r="E17" s="0">
-        <v>199.43000000000001</v>
+        <v>197.31999999999999</v>
       </c>
       <c r="F17" s="0">
-        <v>251.85</v>
+        <v>255.63</v>
       </c>
     </row>
     <row r="18">
@@ -1176,16 +1176,16 @@
         <v>850</v>
       </c>
       <c r="C18" s="0">
-        <v>115.06999999999999</v>
+        <v>100.68000000000001</v>
       </c>
       <c r="D18" s="0">
-        <v>163.85</v>
+        <v>155.44999999999999</v>
       </c>
       <c r="E18" s="0">
-        <v>218.15000000000001</v>
+        <v>215.90000000000001</v>
       </c>
       <c r="F18" s="0">
-        <v>273.83999999999997</v>
+        <v>277.86000000000001</v>
       </c>
     </row>
     <row r="19">
@@ -1194,16 +1194,16 @@
         <v>900</v>
       </c>
       <c r="C19" s="0">
-        <v>127.72</v>
+        <v>112.48</v>
       </c>
       <c r="D19" s="0">
-        <v>179.37</v>
+        <v>170.47999999999999</v>
       </c>
       <c r="E19" s="0">
-        <v>236.86000000000001</v>
+        <v>234.47999999999999</v>
       </c>
       <c r="F19" s="0">
-        <v>295.82999999999999</v>
+        <v>300.08999999999998</v>
       </c>
     </row>
     <row r="20">
@@ -1212,16 +1212,16 @@
         <v>950</v>
       </c>
       <c r="C20" s="0">
-        <v>140.37</v>
+        <v>124.29000000000001</v>
       </c>
       <c r="D20" s="0">
-        <v>194.88999999999999</v>
+        <v>185.50999999999999</v>
       </c>
       <c r="E20" s="0">
-        <v>255.58000000000001</v>
+        <v>253.06</v>
       </c>
       <c r="F20" s="0">
-        <v>317.81999999999999</v>
+        <v>322.31</v>
       </c>
     </row>
     <row r="21">
@@ -1230,16 +1230,16 @@
         <v>1000</v>
       </c>
       <c r="C21" s="0">
-        <v>153.02000000000001</v>
+        <v>136.09</v>
       </c>
       <c r="D21" s="0">
-        <v>210.41</v>
+        <v>200.53</v>
       </c>
       <c r="E21" s="0">
-        <v>274.29000000000002</v>
+        <v>271.64999999999998</v>
       </c>
       <c r="F21" s="0">
-        <v>339.81</v>
+        <v>344.54000000000002</v>
       </c>
     </row>
   </sheetData>
